--- a/模擬長條圖.xlsx
+++ b/模擬長條圖.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6A678-A9C8-41DF-AC14-A2BFA88AA87C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8754"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Maximum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IBSCPPFNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,11 +68,23 @@
     <t xml:space="preserve"> Standard Deviation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTCRLFNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +178,7 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>(rad)</a:t>
+              <a:t>(rpm)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -256,7 +259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSC</c:v>
+                  <c:v>CTC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -283,7 +286,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -304,7 +309,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -325,7 +332,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -401,17 +410,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IBSCPPFNN</c:v>
+                  <c:v>ICTCRLFNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -431,7 +437,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -452,7 +460,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -473,7 +483,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2721-4DFA-A632-25C3C72DF23C}"/>
                 </c:ext>
@@ -870,7 +882,20 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>(rad)</a:t>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>rpm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -970,9 +995,6 @@
               <c:f>工作表1!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PI</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1003,9 +1025,181 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-1934-49D4-8D65-6833B8B1E81F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$39:$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$58:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1934-49D4-8D65-6833B8B1E81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6161818332749569E-2"/>
+                  <c:y val="-1.8125178620424152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1934-49D4-8D65-6833B8B1E81F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6161818332749618E-2"/>
+                  <c:y val="-1.359388396531803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1934-49D4-8D65-6833B8B1E81F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7816783332884322E-2"/>
+                  <c:y val="-4.5312946551060379E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1934-49D4-8D65-6833B8B1E81F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1070,178 +1264,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$58:$E$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1934-49D4-8D65-6833B8B1E81F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.6161818332749569E-2"/>
-                  <c:y val="-1.8125178620424152E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1934-49D4-8D65-6833B8B1E81F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.6161818332749618E-2"/>
-                  <c:y val="-1.359388396531803E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1934-49D4-8D65-6833B8B1E81F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7816783332884322E-2"/>
-                  <c:y val="-4.5312946551060379E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1934-49D4-8D65-6833B8B1E81F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$B$39:$E$39</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Maximum</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Standard Deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>工作表1!$B$59:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1280,10 +1302,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1308,7 +1327,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1934-49D4-8D65-6833B8B1E81F}"/>
                 </c:ext>
@@ -1329,7 +1350,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-1934-49D4-8D65-6833B8B1E81F}"/>
                 </c:ext>
@@ -1350,7 +1373,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-1934-49D4-8D65-6833B8B1E81F}"/>
                 </c:ext>
@@ -1616,6 +1641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1691,6 +1717,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -1732,6 +1762,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1739,7 +1770,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1812,7 +1842,20 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>(rad)</a:t>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>rpm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1912,9 +1955,6 @@
               <c:f>工作表1!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PI</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1945,7 +1985,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -1966,7 +2008,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -1987,7 +2031,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2058,15 +2104,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2085,7 +2122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSC</c:v>
+                  <c:v>CTC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2117,7 +2154,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2138,7 +2177,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2159,7 +2200,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2257,17 +2300,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IBSCPPFNN</c:v>
+                  <c:v>ICTCRLFNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2292,7 +2332,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2313,7 +2355,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2334,7 +2378,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F028-4D29-A7B5-D560352653A9}"/>
                 </c:ext>
@@ -2597,6 +2643,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2672,6 +2719,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2713,6 +2764,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2720,7 +2772,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2793,7 +2844,7 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>(rad)</a:t>
+              <a:t>(rpm)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2866,7 +2917,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSC</c:v>
+                  <c:v>CTC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2893,7 +2944,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -2914,7 +2967,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -2935,7 +2990,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -3011,17 +3068,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IBSCPPFNN</c:v>
+                  <c:v>ICTCRLFNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -3041,7 +3095,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -3062,7 +3118,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -3083,7 +3141,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-2982-4144-8155-4D6328F8144E}"/>
                 </c:ext>
@@ -4934,35 +4994,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="4" max="4" width="29.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.23100000000000001</v>
@@ -4974,9 +5035,9 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.09</v>
@@ -4988,12 +5049,12 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -5004,9 +5065,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>0.28000000000000003</v>
@@ -5018,9 +5079,9 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>0.11</v>
@@ -5032,12 +5093,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -5048,23 +5109,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>0.35</v>
-      </c>
-      <c r="C40">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D40">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0.122</v>
@@ -5076,9 +5123,9 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>5.8999999999999997E-2</v>
@@ -5090,12 +5137,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -5109,23 +5156,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>0.43</v>
-      </c>
-      <c r="C58">
-        <v>0.214</v>
-      </c>
-      <c r="D58">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>0.14899999999999999</v>
@@ -5137,9 +5170,9 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>7.2999999999999995E-2</v>
